--- a/fermentation_insights/TRY_results/spearman_HP_glucose.xlsx
+++ b/fermentation_insights/TRY_results/spearman_HP_glucose.xlsx
@@ -625,109 +625,109 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00821619286477146</v>
+        <v>0.04642117768471074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1509052116208465</v>
+        <v>0.0139936879747519</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4982883611534446</v>
+        <v>0.5731321805287222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333069012276049</v>
+        <v>0.1993601574406298</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0260690002760011</v>
+        <v>-0.02792622370489482</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4137960231840928</v>
+        <v>-0.4248440353761415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006508634034536138</v>
+        <v>0.01066650666602666</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1379223116892468</v>
+        <v>-0.2330293161172645</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0992379969519878</v>
+        <v>0.08216567266269065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008014496057984231</v>
+        <v>0.01908871635486542</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.06848657794631179</v>
+        <v>-0.07128066912267648</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.07230355321421286</v>
+        <v>-0.07787541550166201</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0251497965991864</v>
+        <v>-0.03597623990495962</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03429748118992476</v>
+        <v>-0.04938211752847011</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04536411745646982</v>
+        <v>0.03649540998163993</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06507184428737715</v>
+        <v>0.05737002148008592</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.008418945675782703</v>
+        <v>-0.06668311473245893</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.007231516926067705</v>
+        <v>-0.004036048144192577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6640141120564482</v>
+        <v>0.6284576818307274</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01089709958839835</v>
+        <v>0.02008251233004932</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01745229380917524</v>
+        <v>0.0291438925755703</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0401310405241621</v>
+        <v>-0.05576998307993232</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.06832788931155724</v>
+        <v>-0.1357919671678687</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.04007862431449725</v>
+        <v>-0.04703673214692859</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.02213432853731415</v>
+        <v>-0.02325062100248401</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.04780646322585291</v>
+        <v>-0.03770779883119532</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06269881079524318</v>
+        <v>0.0718874875499502</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3488974595898384</v>
+        <v>0.3082551210204841</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0628001872007488</v>
+        <v>0.07370928683714735</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.213939639758559</v>
+        <v>-0.220500882003528</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1670225240900964</v>
+        <v>-0.2496793347173389</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.04980154320617283</v>
+        <v>0.04279476317905272</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01862618650474602</v>
+        <v>-0.01415343261373045</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1301491605966424</v>
+        <v>0.1655793503174013</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2727059868239473</v>
+        <v>0.2447063228252913</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00821619286477146</v>
+        <v>0.04642117768471074</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1368028512114048</v>
+        <v>0.1115469741878967</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05187150348601394</v>
+        <v>0.4885912663650654</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.291374413497654</v>
+        <v>-0.2503338653354613</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08279437917751671</v>
+        <v>0.08364398257593031</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.08512517250069</v>
+        <v>-0.08528990915963663</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9339598958395834</v>
+        <v>0.9420740402961612</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02933589334357337</v>
+        <v>0.02580077520310081</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06332108528434113</v>
+        <v>0.06941758967035869</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03416711266845068</v>
+        <v>-0.03874249096996388</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002235944943779775</v>
+        <v>0.001280741122964492</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09347096588386354</v>
+        <v>0.09356207024828099</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.06475331501326005</v>
+        <v>-0.06486486745946984</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06446617786471145</v>
+        <v>0.06603847215388861</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07693009972039888</v>
+        <v>0.0749063156252625</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02770350281401126</v>
+        <v>-0.02513942855771423</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1217562310249241</v>
+        <v>-0.1197463669854679</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.06046603386413546</v>
+        <v>-0.06346585386341545</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1981385525542102</v>
+        <v>0.1992668450673803</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0509687158748635</v>
+        <v>0.05163995055980224</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.01569846279385118</v>
+        <v>-0.01242542570170281</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005855351421405685</v>
+        <v>0.00854816219264877</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.03571022284089136</v>
+        <v>-0.03694737978951916</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.09489426757707031</v>
+        <v>0.09441714566858267</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.04532965331861327</v>
+        <v>-0.0488313633254533</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.02203708014832059</v>
+        <v>-0.02663473053892216</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02427619310477242</v>
+        <v>0.02465395461581846</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3016329185316741</v>
+        <v>-0.2801704006816027</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02085416341665366</v>
+        <v>0.02264533858135433</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09170244680978724</v>
+        <v>0.09604224016896068</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.05237224148896596</v>
+        <v>0.05750307801231205</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02261529046116184</v>
+        <v>0.02074693098772395</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02508893235572942</v>
+        <v>0.02629047316189265</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.05568022272089088</v>
+        <v>-0.04258423433693734</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.05048813795255181</v>
+        <v>-0.03878281113124452</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1509052116208465</v>
+        <v>0.0139936879747519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1368028512114048</v>
+        <v>0.1115469741878967</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1955202380809523</v>
+        <v>-0.1572852051408206</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04122198888795555</v>
+        <v>0.01275269101076404</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01085533942135769</v>
+        <v>-0.007515390061560246</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2190239160956644</v>
+        <v>-0.2003918735674943</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03164220656882628</v>
+        <v>0.02935768543074172</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6079984639938559</v>
+        <v>0.6242982731930927</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02322930891723567</v>
+        <v>0.02693357973431894</v>
       </c>
       <c r="L4" t="n">
-        <v>0.203564014256057</v>
+        <v>0.1948873075492302</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02115704462817851</v>
+        <v>0.03378695114780459</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0156061104244417</v>
+        <v>-0.004071376285505142</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2307771471085884</v>
+        <v>0.2441759207036828</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0317190068760275</v>
+        <v>0.0369687878751515</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.053124788499154</v>
+        <v>0.04955309421237685</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01706637226548906</v>
+        <v>-0.01838704954819819</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.03033276133104532</v>
+        <v>-0.003325933303733215</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.04158880635522542</v>
+        <v>-0.042875019500078</v>
       </c>
       <c r="U4" t="n">
-        <v>0.374942171768687</v>
+        <v>0.3476137424549698</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1944869859479438</v>
+        <v>0.1948812595250381</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.07840764163056652</v>
+        <v>-0.07338298153192613</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03893257173028692</v>
+        <v>0.03750927003708015</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2345297061188245</v>
+        <v>0.2527089148356593</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01653568214272857</v>
+        <v>0.01698621194484778</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07900937203748815</v>
+        <v>0.0716808947235789</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.00839187356749427</v>
+        <v>-0.01027856911427646</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01693005172020688</v>
+        <v>0.01051914607658431</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.04783065532262129</v>
+        <v>-0.0375189660758643</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.01482245928983716</v>
+        <v>-0.0209939399757599</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1074109896439586</v>
+        <v>0.1251206604826419</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03367703070812283</v>
+        <v>0.1095933663734655</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.05451103404413617</v>
+        <v>0.05341163764655059</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.001802791211164845</v>
+        <v>-0.001290149160596642</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4046350905403622</v>
+        <v>-0.3948019632078528</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02207912831651327</v>
+        <v>0.03959929439717759</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4982883611534446</v>
+        <v>0.5731321805287222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05187150348601394</v>
+        <v>0.4885912663650654</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1955202380809523</v>
+        <v>-0.1572852051408206</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6867123468493874</v>
+        <v>0.2834093576374305</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01604886419545678</v>
+        <v>0.03573278293113172</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1299605198420794</v>
+        <v>-0.2263569054276217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.274563978255913</v>
+        <v>0.5843459853839416</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1071588926355705</v>
+        <v>-0.1432288289153157</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1016585506342025</v>
+        <v>0.1012593810375241</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004702962811851247</v>
+        <v>0.008236352945411782</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01035296941187765</v>
+        <v>-0.01533423733694935</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03992118368473474</v>
+        <v>-0.02339481357925432</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00709682838731355</v>
+        <v>-0.002577418309673239</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.009612038448153793</v>
+        <v>0.0033687494749979</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.05932574130296521</v>
+        <v>0.01316846867387469</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0716003504014016</v>
+        <v>0.03020748082992332</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.06292402769611079</v>
+        <v>-0.2255985983943936</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06736097344389377</v>
+        <v>-0.06913438853755415</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07764511058044232</v>
+        <v>0.2045956343825375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06847880191520767</v>
+        <v>0.1070957243828975</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0800872643490574</v>
+        <v>0.06904453217812871</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05535180540722163</v>
+        <v>0.01496089184356737</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1095081180324721</v>
+        <v>-0.250563978255913</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.006133944535778143</v>
+        <v>0.03824655298621194</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1038897915591662</v>
+        <v>-0.09582307129228516</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1142974811899248</v>
+        <v>-0.08801718406873628</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05090401161604646</v>
+        <v>0.09552345409381638</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6874431977727911</v>
+        <v>0.3532606770427082</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02210696842787371</v>
+        <v>0.05868378673514694</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.08475768303073213</v>
+        <v>0.03975980703922816</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.009124836499345998</v>
+        <v>-0.1252013968055872</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.01947799791199165</v>
+        <v>-0.00672809091236365</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.06529638918555675</v>
+        <v>0.07898181992727971</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3087452989811959</v>
+        <v>0.2732894771579086</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3613620534482138</v>
+        <v>0.2950823323293293</v>
       </c>
     </row>
     <row r="6">
@@ -1082,112 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3333069012276049</v>
+        <v>0.1993601574406298</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.291374413497654</v>
+        <v>-0.2503338653354613</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04122198888795555</v>
+        <v>0.01275269101076404</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6867123468493874</v>
+        <v>0.2834093576374305</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03316592466369866</v>
+        <v>-0.02290511562046248</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03756130224520898</v>
+        <v>-0.03307107628430514</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04745154980619923</v>
+        <v>-0.0433557894231577</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04439192156768627</v>
+        <v>-0.02819656078624315</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01204612818451274</v>
+        <v>-0.002987531950127801</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001717638870555482</v>
+        <v>-0.02349878199512798</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03814968859875439</v>
+        <v>-0.01258411433645735</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01405176820707283</v>
+        <v>0.02967832671330685</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003002700010800043</v>
+        <v>0.02696017184068736</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001636326545306181</v>
+        <v>0.008814755259021036</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.06345126180504722</v>
+        <v>-0.06690737162948651</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08615717662870652</v>
+        <v>0.08197962391849567</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007395485581942328</v>
+        <v>-0.005725462901851607</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01540182160728643</v>
+        <v>-0.01637900951603806</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.05718022872091488</v>
+        <v>-0.06615357661430646</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04398622394489578</v>
+        <v>0.06519818079272317</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09536745346981387</v>
+        <v>0.09302629210516843</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04321399685598742</v>
+        <v>0.02765934263737055</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.008050208200832803</v>
+        <v>0.03236067344269377</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.006792219168876675</v>
+        <v>0.01296773187092748</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.05671568286273145</v>
+        <v>-0.0675067980271921</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.06800283201132805</v>
+        <v>-0.05221422485689943</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.001031044124176497</v>
+        <v>-0.001745574982299929</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9867856431425726</v>
+        <v>0.9127124188496754</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.005882711530846124</v>
+        <v>-0.001718022872091488</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01816404065616262</v>
+        <v>0.03764463057852231</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02580739922959692</v>
+        <v>0.2996046224184897</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01924414097656391</v>
+        <v>-0.01119124476497906</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.05548831795327181</v>
+        <v>0.05131969327877312</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0008222432889731559</v>
+        <v>0.01392687170748683</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0862622970491882</v>
+        <v>0.08103296413185652</v>
       </c>
     </row>
     <row r="7">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0260690002760011</v>
+        <v>-0.02792622370489482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08279437917751671</v>
+        <v>0.08364398257593031</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01085533942135769</v>
+        <v>-0.007515390061560246</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01604886419545678</v>
+        <v>0.03573278293113172</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03316592466369866</v>
+        <v>-0.02290511562046248</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4137960231840928</v>
+        <v>-0.4248440353761415</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.08512517250069</v>
+        <v>-0.08528990915963663</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2190239160956644</v>
+        <v>-0.2003918735674943</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1299605198420794</v>
+        <v>-0.2263569054276217</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03756130224520898</v>
+        <v>-0.03307107628430514</v>
       </c>
       <c r="G8" t="n">
         <v>-0.0228686354745419</v>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.006508634034536138</v>
+        <v>0.01066650666602666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9339598958395834</v>
+        <v>0.9420740402961612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03164220656882628</v>
+        <v>0.02935768543074172</v>
       </c>
       <c r="E9" t="n">
-        <v>0.274563978255913</v>
+        <v>0.5843459853839416</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04745154980619923</v>
+        <v>-0.0433557894231577</v>
       </c>
       <c r="G9" t="n">
         <v>0.08910342841371366</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1379223116892468</v>
+        <v>-0.2330293161172645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02933589334357337</v>
+        <v>0.02580077520310081</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6079984639938559</v>
+        <v>0.6242982731930927</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1071588926355705</v>
+        <v>-0.1432288289153157</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04439192156768627</v>
+        <v>-0.02819656078624315</v>
       </c>
       <c r="G10" t="n">
         <v>-0.01306565226260905</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0992379969519878</v>
+        <v>0.08216567266269065</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06332108528434113</v>
+        <v>0.06941758967035869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02322930891723567</v>
+        <v>0.02693357973431894</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1016585506342025</v>
+        <v>0.1012593810375241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01204612818451274</v>
+        <v>-0.002987531950127801</v>
       </c>
       <c r="G11" t="n">
         <v>-0.1083313453253813</v>
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.008014496057984231</v>
+        <v>0.01908871635486542</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03416711266845068</v>
+        <v>-0.03874249096996388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203564014256057</v>
+        <v>0.1948873075492302</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004702962811851247</v>
+        <v>0.008236352945411782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001717638870555482</v>
+        <v>-0.02349878199512798</v>
       </c>
       <c r="G12" t="n">
         <v>0.04719705278821115</v>
@@ -1887,19 +1887,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06848657794631179</v>
+        <v>-0.07128066912267648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002235944943779775</v>
+        <v>0.001280741122964492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02115704462817851</v>
+        <v>0.03378695114780459</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01035296941187765</v>
+        <v>-0.01533423733694935</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03814968859875439</v>
+        <v>-0.01258411433645735</v>
       </c>
       <c r="G13" t="n">
         <v>0.01714826059304237</v>
@@ -2002,19 +2002,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.07230355321421286</v>
+        <v>-0.07787541550166201</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09347096588386354</v>
+        <v>0.09356207024828099</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0156061104244417</v>
+        <v>-0.004071376285505142</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03992118368473474</v>
+        <v>-0.02339481357925432</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01405176820707283</v>
+        <v>0.02967832671330685</v>
       </c>
       <c r="G14" t="n">
         <v>-0.009399205596822387</v>
@@ -2117,19 +2117,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0251497965991864</v>
+        <v>-0.03597623990495962</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06475331501326005</v>
+        <v>-0.06486486745946984</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2307771471085884</v>
+        <v>0.2441759207036828</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00709682838731355</v>
+        <v>-0.002577418309673239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003002700010800043</v>
+        <v>0.02696017184068736</v>
       </c>
       <c r="G15" t="n">
         <v>0.009240900963603855</v>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03429748118992476</v>
+        <v>-0.04938211752847011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06446617786471145</v>
+        <v>0.06603847215388861</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0317190068760275</v>
+        <v>0.0369687878751515</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.009612038448153793</v>
+        <v>0.0033687494749979</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001636326545306181</v>
+        <v>0.008814755259021036</v>
       </c>
       <c r="G16" t="n">
         <v>-0.06015153660614642</v>
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04536411745646982</v>
+        <v>0.03649540998163993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07693009972039888</v>
+        <v>0.0749063156252625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.053124788499154</v>
+        <v>0.04955309421237685</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05932574130296521</v>
+        <v>0.01316846867387469</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06345126180504722</v>
+        <v>-0.06690737162948651</v>
       </c>
       <c r="G17" t="n">
         <v>0.02646932187728751</v>
@@ -2462,19 +2462,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06507184428737715</v>
+        <v>0.05737002148008592</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02770350281401126</v>
+        <v>-0.02513942855771423</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01706637226548906</v>
+        <v>-0.01838704954819819</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0716003504014016</v>
+        <v>0.03020748082992332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08615717662870652</v>
+        <v>0.08197962391849567</v>
       </c>
       <c r="G18" t="n">
         <v>-0.0740436561746247</v>
@@ -2577,19 +2577,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008418945675782703</v>
+        <v>-0.06668311473245893</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1217562310249241</v>
+        <v>-0.1197463669854679</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03033276133104532</v>
+        <v>-0.003325933303733215</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.06292402769611079</v>
+        <v>-0.2255985983943936</v>
       </c>
       <c r="F19" t="n">
-        <v>0.007395485581942328</v>
+        <v>-0.005725462901851607</v>
       </c>
       <c r="G19" t="n">
         <v>0.01246353785415142</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007231516926067705</v>
+        <v>-0.004036048144192577</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06046603386413546</v>
+        <v>-0.06346585386341545</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04158880635522542</v>
+        <v>-0.042875019500078</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06736097344389377</v>
+        <v>-0.06913438853755415</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01540182160728643</v>
+        <v>-0.01637900951603806</v>
       </c>
       <c r="G20" t="n">
         <v>-0.0212874131496526</v>
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6640141120564482</v>
+        <v>0.6284576818307274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1981385525542102</v>
+        <v>0.1992668450673803</v>
       </c>
       <c r="D21" t="n">
-        <v>0.374942171768687</v>
+        <v>0.3476137424549698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07764511058044232</v>
+        <v>0.2045956343825375</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.05718022872091488</v>
+        <v>-0.06615357661430646</v>
       </c>
       <c r="G21" t="n">
         <v>-0.03526689306757227</v>
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01089709958839835</v>
+        <v>0.02008251233004932</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0509687158748635</v>
+        <v>0.05163995055980224</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1944869859479438</v>
+        <v>0.1948812595250381</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06847880191520767</v>
+        <v>0.1070957243828975</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04398622394489578</v>
+        <v>0.06519818079272317</v>
       </c>
       <c r="G22" t="n">
         <v>0.02758964635858543</v>
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01745229380917524</v>
+        <v>0.0291438925755703</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01569846279385118</v>
+        <v>-0.01242542570170281</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.07840764163056652</v>
+        <v>-0.07338298153192613</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0800872643490574</v>
+        <v>0.06904453217812871</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09536745346981387</v>
+        <v>0.09302629210516843</v>
       </c>
       <c r="G23" t="n">
         <v>0.06868702674810699</v>
@@ -3152,19 +3152,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0401310405241621</v>
+        <v>-0.05576998307993232</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005855351421405685</v>
+        <v>0.00854816219264877</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03893257173028692</v>
+        <v>0.03750927003708015</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05535180540722163</v>
+        <v>0.01496089184356737</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04321399685598742</v>
+        <v>0.02765934263737055</v>
       </c>
       <c r="G24" t="n">
         <v>0.02887518750075</v>
@@ -3267,19 +3267,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.06832788931155724</v>
+        <v>-0.1357919671678687</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.03571022284089136</v>
+        <v>-0.03694737978951916</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2345297061188245</v>
+        <v>0.2527089148356593</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1095081180324721</v>
+        <v>-0.250563978255913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008050208200832803</v>
+        <v>0.03236067344269377</v>
       </c>
       <c r="G25" t="n">
         <v>0.01226644906579626</v>
@@ -3382,19 +3382,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.04007862431449725</v>
+        <v>-0.04703673214692859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09489426757707031</v>
+        <v>0.09441714566858267</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01653568214272857</v>
+        <v>0.01698621194484778</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.006133944535778143</v>
+        <v>0.03824655298621194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006792219168876675</v>
+        <v>0.01296773187092748</v>
       </c>
       <c r="G26" t="n">
         <v>0.01696845187380749</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.02213432853731415</v>
+        <v>-0.02325062100248401</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04532965331861327</v>
+        <v>-0.0488313633254533</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07900937203748815</v>
+        <v>0.0716808947235789</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1038897915591662</v>
+        <v>-0.09582307129228516</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.05671568286273145</v>
+        <v>-0.0675067980271921</v>
       </c>
       <c r="G27" t="n">
         <v>-0.004993555974223897</v>
@@ -3612,19 +3612,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.04780646322585291</v>
+        <v>-0.03770779883119532</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.02203708014832059</v>
+        <v>-0.02663473053892216</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.00839187356749427</v>
+        <v>-0.01027856911427646</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1142974811899248</v>
+        <v>-0.08801718406873628</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.06800283201132805</v>
+        <v>-0.05221422485689943</v>
       </c>
       <c r="G28" t="n">
         <v>0.03612811251245005</v>
@@ -3727,19 +3727,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06269881079524318</v>
+        <v>0.0718874875499502</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02427619310477242</v>
+        <v>0.02465395461581846</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01693005172020688</v>
+        <v>0.01051914607658431</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05090401161604646</v>
+        <v>0.09552345409381638</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.001031044124176497</v>
+        <v>-0.001745574982299929</v>
       </c>
       <c r="G29" t="n">
         <v>0.05674179496717987</v>
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3488974595898384</v>
+        <v>0.3082551210204841</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3016329185316741</v>
+        <v>-0.2801704006816027</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04783065532262129</v>
+        <v>-0.0375189660758643</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6874431977727911</v>
+        <v>0.3532606770427082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9867856431425726</v>
+        <v>0.9127124188496754</v>
       </c>
       <c r="G30" t="n">
         <v>-0.03504887619550478</v>
@@ -3957,19 +3957,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0628001872007488</v>
+        <v>0.07370928683714735</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02085416341665366</v>
+        <v>0.02264533858135433</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01482245928983716</v>
+        <v>-0.0209939399757599</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02210696842787371</v>
+        <v>0.05868378673514694</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005882711530846124</v>
+        <v>-0.001718022872091488</v>
       </c>
       <c r="G31" t="n">
         <v>0.04266468265873063</v>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.213939639758559</v>
+        <v>-0.220500882003528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09170244680978724</v>
+        <v>0.09604224016896068</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1074109896439586</v>
+        <v>0.1251206604826419</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08475768303073213</v>
+        <v>0.03975980703922816</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01816404065616262</v>
+        <v>0.03764463057852231</v>
       </c>
       <c r="G32" t="n">
         <v>0.02212693650774603</v>
@@ -4187,19 +4187,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1670225240900964</v>
+        <v>-0.2496793347173389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05237224148896596</v>
+        <v>0.05750307801231205</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03367703070812283</v>
+        <v>0.1095933663734655</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.009124836499345998</v>
+        <v>-0.1252013968055872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02580739922959692</v>
+        <v>0.2996046224184897</v>
       </c>
       <c r="G33" t="n">
         <v>-0.001653510614042456</v>
@@ -4302,19 +4302,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04980154320617283</v>
+        <v>0.04279476317905272</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02261529046116184</v>
+        <v>0.02074693098772395</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05451103404413617</v>
+        <v>0.05341163764655059</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.01947799791199165</v>
+        <v>-0.00672809091236365</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01924414097656391</v>
+        <v>-0.01119124476497906</v>
       </c>
       <c r="G34" t="n">
         <v>0.004860499441997768</v>
@@ -4417,19 +4417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01862618650474602</v>
+        <v>-0.01415343261373045</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02508893235572942</v>
+        <v>0.02629047316189265</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001802791211164845</v>
+        <v>-0.001290149160596642</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06529638918555675</v>
+        <v>0.07898181992727971</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05548831795327181</v>
+        <v>0.05131969327877312</v>
       </c>
       <c r="G35" t="n">
         <v>0.01461692246768987</v>
@@ -4532,19 +4532,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1301491605966424</v>
+        <v>0.1655793503174013</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.05568022272089088</v>
+        <v>-0.04258423433693734</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4046350905403622</v>
+        <v>-0.3948019632078528</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3087452989811959</v>
+        <v>0.2732894771579086</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0008222432889731559</v>
+        <v>0.01392687170748683</v>
       </c>
       <c r="G36" t="n">
         <v>0.04644709778839115</v>
@@ -4647,19 +4647,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2727059868239473</v>
+        <v>0.2447063228252913</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.05048813795255181</v>
+        <v>-0.03878281113124452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02207912831651327</v>
+        <v>0.03959929439717759</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3613620534482138</v>
+        <v>0.2950823323293293</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0862622970491882</v>
+        <v>0.08103296413185652</v>
       </c>
       <c r="G37" t="n">
         <v>0.02651617006468026</v>
